--- a/SenaDocs/doc/trim5/Plan de implementacion/Diagrama de Gant Proyecto ACA.xlsx
+++ b/SenaDocs/doc/trim5/Plan de implementacion/Diagrama de Gant Proyecto ACA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79EDA5A-8B90-45D4-8B5F-7DB843300282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0C9BE4-7247-44CA-A7EB-FC1B524F9BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -102,21 +102,6 @@
 Inserte nuevas filas encima de ésta para continuar creando la programación del proyecto.</t>
   </si>
   <si>
-    <t>Tarea 1</t>
-  </si>
-  <si>
-    <t>Tarea 2</t>
-  </si>
-  <si>
-    <t>Tarea 3</t>
-  </si>
-  <si>
-    <t>Tarea 4</t>
-  </si>
-  <si>
-    <t>Tarea 5</t>
-  </si>
-  <si>
     <t>Inserte nuevas filas ENCIMA de ésta</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
   </si>
   <si>
     <t>INICIO</t>
-  </si>
-  <si>
-    <t>fecha</t>
   </si>
   <si>
     <t>FIN</t>
@@ -206,12 +188,6 @@
     <t>Completo</t>
   </si>
   <si>
-    <t>Re-validar casos de entrevista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentar resultados obtenidos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Responsable </t>
   </si>
   <si>
@@ -303,6 +279,18 @@
   </si>
   <si>
     <t>Manual de usuario y manual tecnico</t>
+  </si>
+  <si>
+    <t>Manual de instalacion y configuracion del servidor de DB</t>
+  </si>
+  <si>
+    <t>Manual de instalacion y configuracion de App service Frontend</t>
+  </si>
+  <si>
+    <t>Manual de instalacion y configuracion de App service Backend</t>
+  </si>
+  <si>
+    <t>Despliegue de proyecto</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1094,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1237,9 +1225,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1354,6 +1339,40 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="7" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1364,40 +1383,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="172" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="7" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2007,11 +1992,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM47"/>
+  <dimension ref="A1:BM42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="1"/>
@@ -2062,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="38"/>
       <c r="J2" s="35"/>
@@ -2073,341 +2058,341 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
-      <c r="D3" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="90">
+      <c r="D3" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="96"/>
+      <c r="F3" s="101">
         <v>44969</v>
       </c>
-      <c r="G3" s="90"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="92"/>
+        <v>35</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="96"/>
       <c r="F4" s="7">
-        <v>8</v>
-      </c>
-      <c r="J4" s="87">
+        <v>15</v>
+      </c>
+      <c r="J4" s="98">
         <f>J5</f>
-        <v>45019</v>
-      </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="87">
+        <v>45068</v>
+      </c>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="98">
         <f>Q5</f>
-        <v>45026</v>
-      </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="87">
+        <v>45075</v>
+      </c>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="98">
         <f>X5</f>
-        <v>45033</v>
-      </c>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="87">
+        <v>45082</v>
+      </c>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="98">
         <f>AE5</f>
-        <v>45040</v>
-      </c>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="87">
+        <v>45089</v>
+      </c>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="98">
         <f>AL5</f>
-        <v>45047</v>
-      </c>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="87">
+        <v>45096</v>
+      </c>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="98">
         <f>AS5</f>
-        <v>45054</v>
-      </c>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="87">
+        <v>45103</v>
+      </c>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="98">
         <f>AZ5</f>
-        <v>45061</v>
-      </c>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="89"/>
-      <c r="BG4" s="87">
+        <v>45110</v>
+      </c>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="98">
         <f>BG5</f>
-        <v>45068</v>
-      </c>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="89"/>
+        <v>45117</v>
+      </c>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="100"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="J5" s="54">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="J5" s="53">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45019</v>
-      </c>
-      <c r="K5" s="55">
+        <v>45068</v>
+      </c>
+      <c r="K5" s="54">
         <f>J5+1</f>
-        <v>45020</v>
-      </c>
-      <c r="L5" s="55">
+        <v>45069</v>
+      </c>
+      <c r="L5" s="54">
         <f t="shared" ref="L5:AY5" si="0">K5+1</f>
-        <v>45021</v>
-      </c>
-      <c r="M5" s="55">
+        <v>45070</v>
+      </c>
+      <c r="M5" s="54">
         <f>L5+1</f>
-        <v>45022</v>
-      </c>
-      <c r="N5" s="55">
+        <v>45071</v>
+      </c>
+      <c r="N5" s="54">
         <f t="shared" si="0"/>
-        <v>45023</v>
-      </c>
-      <c r="O5" s="55">
+        <v>45072</v>
+      </c>
+      <c r="O5" s="54">
         <f t="shared" si="0"/>
-        <v>45024</v>
-      </c>
-      <c r="P5" s="56">
+        <v>45073</v>
+      </c>
+      <c r="P5" s="55">
         <f t="shared" si="0"/>
-        <v>45025</v>
-      </c>
-      <c r="Q5" s="54">
+        <v>45074</v>
+      </c>
+      <c r="Q5" s="53">
         <f>P5+1</f>
-        <v>45026</v>
-      </c>
-      <c r="R5" s="55">
+        <v>45075</v>
+      </c>
+      <c r="R5" s="54">
         <f>Q5+1</f>
-        <v>45027</v>
-      </c>
-      <c r="S5" s="55">
+        <v>45076</v>
+      </c>
+      <c r="S5" s="54">
         <f t="shared" si="0"/>
-        <v>45028</v>
-      </c>
-      <c r="T5" s="55">
+        <v>45077</v>
+      </c>
+      <c r="T5" s="54">
         <f t="shared" si="0"/>
-        <v>45029</v>
-      </c>
-      <c r="U5" s="55">
+        <v>45078</v>
+      </c>
+      <c r="U5" s="54">
         <f t="shared" si="0"/>
-        <v>45030</v>
-      </c>
-      <c r="V5" s="55">
+        <v>45079</v>
+      </c>
+      <c r="V5" s="54">
         <f t="shared" si="0"/>
-        <v>45031</v>
-      </c>
-      <c r="W5" s="56">
+        <v>45080</v>
+      </c>
+      <c r="W5" s="55">
         <f t="shared" si="0"/>
-        <v>45032</v>
-      </c>
-      <c r="X5" s="54">
+        <v>45081</v>
+      </c>
+      <c r="X5" s="53">
         <f>W5+1</f>
-        <v>45033</v>
-      </c>
-      <c r="Y5" s="55">
+        <v>45082</v>
+      </c>
+      <c r="Y5" s="54">
         <f>X5+1</f>
-        <v>45034</v>
-      </c>
-      <c r="Z5" s="55">
+        <v>45083</v>
+      </c>
+      <c r="Z5" s="54">
         <f t="shared" si="0"/>
-        <v>45035</v>
-      </c>
-      <c r="AA5" s="55">
+        <v>45084</v>
+      </c>
+      <c r="AA5" s="54">
         <f t="shared" si="0"/>
-        <v>45036</v>
-      </c>
-      <c r="AB5" s="55">
+        <v>45085</v>
+      </c>
+      <c r="AB5" s="54">
         <f t="shared" si="0"/>
-        <v>45037</v>
-      </c>
-      <c r="AC5" s="55">
+        <v>45086</v>
+      </c>
+      <c r="AC5" s="54">
         <f t="shared" si="0"/>
-        <v>45038</v>
-      </c>
-      <c r="AD5" s="56">
+        <v>45087</v>
+      </c>
+      <c r="AD5" s="55">
         <f t="shared" si="0"/>
-        <v>45039</v>
-      </c>
-      <c r="AE5" s="54">
+        <v>45088</v>
+      </c>
+      <c r="AE5" s="53">
         <f>AD5+1</f>
-        <v>45040</v>
-      </c>
-      <c r="AF5" s="55">
+        <v>45089</v>
+      </c>
+      <c r="AF5" s="54">
         <f>AE5+1</f>
-        <v>45041</v>
-      </c>
-      <c r="AG5" s="55">
+        <v>45090</v>
+      </c>
+      <c r="AG5" s="54">
         <f t="shared" si="0"/>
-        <v>45042</v>
-      </c>
-      <c r="AH5" s="55">
+        <v>45091</v>
+      </c>
+      <c r="AH5" s="54">
         <f t="shared" si="0"/>
-        <v>45043</v>
-      </c>
-      <c r="AI5" s="55">
+        <v>45092</v>
+      </c>
+      <c r="AI5" s="54">
         <f t="shared" si="0"/>
-        <v>45044</v>
-      </c>
-      <c r="AJ5" s="55">
+        <v>45093</v>
+      </c>
+      <c r="AJ5" s="54">
         <f t="shared" si="0"/>
-        <v>45045</v>
-      </c>
-      <c r="AK5" s="56">
+        <v>45094</v>
+      </c>
+      <c r="AK5" s="55">
         <f t="shared" si="0"/>
-        <v>45046</v>
-      </c>
-      <c r="AL5" s="54">
+        <v>45095</v>
+      </c>
+      <c r="AL5" s="53">
         <f>AK5+1</f>
-        <v>45047</v>
-      </c>
-      <c r="AM5" s="55">
+        <v>45096</v>
+      </c>
+      <c r="AM5" s="54">
         <f>AL5+1</f>
-        <v>45048</v>
-      </c>
-      <c r="AN5" s="55">
+        <v>45097</v>
+      </c>
+      <c r="AN5" s="54">
         <f t="shared" si="0"/>
-        <v>45049</v>
-      </c>
-      <c r="AO5" s="55">
+        <v>45098</v>
+      </c>
+      <c r="AO5" s="54">
         <f t="shared" si="0"/>
-        <v>45050</v>
-      </c>
-      <c r="AP5" s="55">
+        <v>45099</v>
+      </c>
+      <c r="AP5" s="54">
         <f t="shared" si="0"/>
-        <v>45051</v>
-      </c>
-      <c r="AQ5" s="55">
+        <v>45100</v>
+      </c>
+      <c r="AQ5" s="54">
         <f t="shared" si="0"/>
-        <v>45052</v>
-      </c>
-      <c r="AR5" s="56">
+        <v>45101</v>
+      </c>
+      <c r="AR5" s="55">
         <f t="shared" si="0"/>
-        <v>45053</v>
-      </c>
-      <c r="AS5" s="54">
+        <v>45102</v>
+      </c>
+      <c r="AS5" s="53">
         <f>AR5+1</f>
-        <v>45054</v>
-      </c>
-      <c r="AT5" s="55">
+        <v>45103</v>
+      </c>
+      <c r="AT5" s="54">
         <f>AS5+1</f>
-        <v>45055</v>
-      </c>
-      <c r="AU5" s="55">
+        <v>45104</v>
+      </c>
+      <c r="AU5" s="54">
         <f t="shared" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="AV5" s="55">
+        <v>45105</v>
+      </c>
+      <c r="AV5" s="54">
         <f t="shared" si="0"/>
-        <v>45057</v>
-      </c>
-      <c r="AW5" s="55">
+        <v>45106</v>
+      </c>
+      <c r="AW5" s="54">
         <f t="shared" si="0"/>
-        <v>45058</v>
-      </c>
-      <c r="AX5" s="55">
+        <v>45107</v>
+      </c>
+      <c r="AX5" s="54">
         <f t="shared" si="0"/>
-        <v>45059</v>
-      </c>
-      <c r="AY5" s="56">
+        <v>45108</v>
+      </c>
+      <c r="AY5" s="55">
         <f t="shared" si="0"/>
-        <v>45060</v>
-      </c>
-      <c r="AZ5" s="54">
+        <v>45109</v>
+      </c>
+      <c r="AZ5" s="53">
         <f>AY5+1</f>
-        <v>45061</v>
-      </c>
-      <c r="BA5" s="55">
+        <v>45110</v>
+      </c>
+      <c r="BA5" s="54">
         <f>AZ5+1</f>
-        <v>45062</v>
-      </c>
-      <c r="BB5" s="55">
+        <v>45111</v>
+      </c>
+      <c r="BB5" s="54">
         <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
-        <v>45063</v>
-      </c>
-      <c r="BC5" s="55">
+        <v>45112</v>
+      </c>
+      <c r="BC5" s="54">
         <f t="shared" si="1"/>
-        <v>45064</v>
-      </c>
-      <c r="BD5" s="55">
+        <v>45113</v>
+      </c>
+      <c r="BD5" s="54">
         <f t="shared" si="1"/>
-        <v>45065</v>
-      </c>
-      <c r="BE5" s="55">
+        <v>45114</v>
+      </c>
+      <c r="BE5" s="54">
         <f t="shared" si="1"/>
-        <v>45066</v>
-      </c>
-      <c r="BF5" s="56">
+        <v>45115</v>
+      </c>
+      <c r="BF5" s="55">
         <f t="shared" si="1"/>
-        <v>45067</v>
-      </c>
-      <c r="BG5" s="54">
+        <v>45116</v>
+      </c>
+      <c r="BG5" s="53">
         <f>BF5+1</f>
-        <v>45068</v>
-      </c>
-      <c r="BH5" s="55">
+        <v>45117</v>
+      </c>
+      <c r="BH5" s="54">
         <f>BG5+1</f>
-        <v>45069</v>
-      </c>
-      <c r="BI5" s="55">
+        <v>45118</v>
+      </c>
+      <c r="BI5" s="54">
         <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
-        <v>45070</v>
-      </c>
-      <c r="BJ5" s="55">
+        <v>45119</v>
+      </c>
+      <c r="BJ5" s="54">
         <f t="shared" si="2"/>
-        <v>45071</v>
-      </c>
-      <c r="BK5" s="55">
+        <v>45120</v>
+      </c>
+      <c r="BK5" s="54">
         <f t="shared" si="2"/>
-        <v>45072</v>
-      </c>
-      <c r="BL5" s="55">
+        <v>45121</v>
+      </c>
+      <c r="BL5" s="54">
         <f t="shared" si="2"/>
-        <v>45073</v>
-      </c>
-      <c r="BM5" s="56">
+        <v>45122</v>
+      </c>
+      <c r="BM5" s="55">
         <f t="shared" si="2"/>
-        <v>45074</v>
+        <v>45123</v>
       </c>
     </row>
     <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2415,26 +2400,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" ref="J6" si="3">LEFT(TEXT(J5,"ddd"),1)</f>
@@ -2733,16 +2718,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="str">
-        <f t="shared" ref="I8:I44" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="I8:I39" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="J8" s="20"/>
@@ -2806,23 +2791,23 @@
       <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="58">
+      <c r="B9" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="57">
         <v>1</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="68">
         <f>Project_Start</f>
         <v>44969</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="68">
         <f>F9+14</f>
         <v>44983</v>
       </c>
@@ -2833,11 +2818,11 @@
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
@@ -2892,23 +2877,23 @@
       <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="58">
+      <c r="B10" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="57">
         <v>1</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="68">
         <f>F9</f>
         <v>44969</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="68">
         <f>F10+14</f>
         <v>44983</v>
       </c>
@@ -2976,23 +2961,23 @@
     </row>
     <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
-      <c r="B11" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="58">
+      <c r="B11" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="57">
         <v>1</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="68">
         <f>F10</f>
         <v>44969</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="68">
         <f>F11+14</f>
         <v>44983</v>
       </c>
@@ -3060,23 +3045,23 @@
     </row>
     <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
-      <c r="B12" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="81" t="s">
+      <c r="B12" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="58">
+      <c r="C12" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="57">
         <v>1</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="68">
         <f>G11</f>
         <v>44983</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="68">
         <f>F12+14</f>
         <v>44997</v>
       </c>
@@ -3141,23 +3126,23 @@
     </row>
     <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
-      <c r="B13" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="58">
+      <c r="B13" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="57">
         <v>1</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="68">
         <f>F12</f>
         <v>44983</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="68">
         <f>F13</f>
         <v>44983</v>
       </c>
@@ -3222,23 +3207,23 @@
     </row>
     <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
-      <c r="B14" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="58">
+      <c r="B14" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="57">
         <v>1</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="68">
         <f>G13</f>
         <v>44983</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="68">
         <f>F14+38</f>
         <v>45021</v>
       </c>
@@ -3303,23 +3288,23 @@
     </row>
     <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
-      <c r="B15" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="58">
+      <c r="B15" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="57">
         <v>1</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="68">
         <f>F14</f>
         <v>44983</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="68">
         <f>F15+47</f>
         <v>45030</v>
       </c>
@@ -3387,13 +3372,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="str">
         <f t="shared" si="6"/>
@@ -3458,23 +3443,23 @@
     </row>
     <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
-      <c r="B17" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="60">
+      <c r="B17" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="59">
         <v>1</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="71">
         <f>G15</f>
         <v>45030</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="71">
         <f>F17+15</f>
         <v>45045</v>
       </c>
@@ -3542,23 +3527,23 @@
     </row>
     <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
-      <c r="B18" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="60">
+      <c r="B18" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="59">
         <v>1</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="71">
         <f>G17</f>
         <v>45045</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="71">
         <f>F18+8</f>
         <v>45053</v>
       </c>
@@ -3626,23 +3611,23 @@
     </row>
     <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
-      <c r="B19" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="60">
+      <c r="B19" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="59">
         <v>1</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="71">
         <f>G18</f>
         <v>45053</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="71">
         <f>F19+14</f>
         <v>45067</v>
       </c>
@@ -3710,23 +3695,23 @@
     </row>
     <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
-      <c r="B20" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="60">
+      <c r="B20" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="59">
         <v>1</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="71">
         <f>G19</f>
         <v>45067</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="71">
         <f>F20+7</f>
         <v>45074</v>
       </c>
@@ -3791,23 +3776,23 @@
     </row>
     <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
-      <c r="B21" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="60">
+      <c r="B21" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="59">
         <v>1</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="71">
         <f>G20</f>
         <v>45074</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="71">
         <f>F21+7</f>
         <v>45081</v>
       </c>
@@ -3875,23 +3860,23 @@
     </row>
     <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
-      <c r="B22" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="60">
+      <c r="B22" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="59">
         <v>1</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="71">
         <f>G21</f>
         <v>45081</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="71">
         <f>F22+20</f>
         <v>45101</v>
       </c>
@@ -3959,13 +3944,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4030,22 +4015,25 @@
     </row>
     <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
-      <c r="B24" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="85"/>
+      <c r="B24" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="84"/>
       <c r="D24" s="45"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="78" t="s">
-        <v>23</v>
+      <c r="E24" s="63">
+        <v>1</v>
+      </c>
+      <c r="F24" s="77">
+        <v>45115</v>
+      </c>
+      <c r="G24" s="77">
+        <f>F24+20</f>
+        <v>45135</v>
       </c>
       <c r="H24" s="13"/>
-      <c r="I24" s="13" t="e">
+      <c r="I24" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>21</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -4106,14 +4094,22 @@
     </row>
     <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
-      <c r="B25" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="85"/>
+      <c r="B25" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="84"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
+      <c r="E25" s="63">
+        <v>1</v>
+      </c>
+      <c r="F25" s="77">
+        <f>G24+1</f>
+        <v>45136</v>
+      </c>
+      <c r="G25" s="77">
+        <f>F25+22</f>
+        <v>45158</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="20"/>
@@ -4175,14 +4171,22 @@
     </row>
     <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
-      <c r="B26" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="85"/>
+      <c r="B26" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="84"/>
       <c r="D26" s="45"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
+      <c r="E26" s="63">
+        <v>1</v>
+      </c>
+      <c r="F26" s="77">
+        <f>G25+1</f>
+        <v>45159</v>
+      </c>
+      <c r="G26" s="77">
+        <f>F26+30</f>
+        <v>45189</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="20"/>
@@ -4243,23 +4247,21 @@
       <c r="BM26" s="20"/>
     </row>
     <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="78" t="s">
-        <v>23</v>
-      </c>
+      <c r="A27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="13" t="e">
+      <c r="I27" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
@@ -4320,22 +4322,25 @@
     </row>
     <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
-      <c r="B28" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="78" t="s">
-        <v>23</v>
+      <c r="B28" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="61">
+        <v>1</v>
+      </c>
+      <c r="F28" s="74">
+        <v>45199</v>
+      </c>
+      <c r="G28" s="74">
+        <f>F28+15</f>
+        <v>45214</v>
       </c>
       <c r="H28" s="13"/>
-      <c r="I28" s="13" t="e">
+      <c r="I28" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
@@ -4396,22 +4401,26 @@
     </row>
     <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="61">
+        <v>1</v>
+      </c>
+      <c r="F29" s="74">
+        <f>G28+1</f>
+        <v>45215</v>
+      </c>
+      <c r="G29" s="74">
+        <f>F29+15</f>
+        <v>45230</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13">
+        <f t="shared" si="6"/>
         <v>16</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
@@ -4472,22 +4481,26 @@
     </row>
     <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
-      <c r="B30" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="78" t="s">
-        <v>23</v>
+      <c r="B30" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="61">
+        <v>1</v>
+      </c>
+      <c r="F30" s="74">
+        <f>G29+1</f>
+        <v>45231</v>
+      </c>
+      <c r="G30" s="74">
+        <f>F30+15</f>
+        <v>45246</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="13" t="e">
+      <c r="I30" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -4547,21 +4560,27 @@
       <c r="BM30" s="20"/>
     </row>
     <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="61">
+        <v>1</v>
+      </c>
+      <c r="F31" s="74">
+        <f>G30+1</f>
+        <v>45247</v>
+      </c>
+      <c r="G31" s="74">
+        <f>F31+27</f>
+        <v>45274</v>
+      </c>
       <c r="H31" s="13"/>
-      <c r="I31" s="13" t="str">
+      <c r="I31" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
@@ -4621,25 +4640,21 @@
       <c r="BM31" s="20"/>
     </row>
     <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="75">
-        <f>F9+15</f>
-        <v>44984</v>
-      </c>
-      <c r="G32" s="75">
-        <f>F32+5</f>
-        <v>44989</v>
-      </c>
+      <c r="A32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13">
+      <c r="I32" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
@@ -4700,24 +4715,25 @@
     </row>
     <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
-      <c r="B33" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="75">
-        <f>G32+1</f>
-        <v>44990</v>
-      </c>
-      <c r="G33" s="75">
-        <f>F33+4</f>
-        <v>44994</v>
+      <c r="B33" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93">
+        <v>1</v>
+      </c>
+      <c r="F33" s="94">
+        <v>45318</v>
+      </c>
+      <c r="G33" s="94">
+        <f>F33+29</f>
+        <v>45347</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -4778,24 +4794,26 @@
     </row>
     <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
-      <c r="B34" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="75">
-        <f>F33+5</f>
-        <v>44995</v>
-      </c>
-      <c r="G34" s="75">
-        <f>F34+5</f>
-        <v>45000</v>
+      <c r="B34" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93">
+        <v>1</v>
+      </c>
+      <c r="F34" s="94">
+        <f>G33+1</f>
+        <v>45348</v>
+      </c>
+      <c r="G34" s="94">
+        <f>F34+6</f>
+        <v>45354</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -4856,24 +4874,26 @@
     </row>
     <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
-      <c r="B35" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="75">
+      <c r="B35" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93">
+        <v>1</v>
+      </c>
+      <c r="F35" s="94">
         <f>G34+1</f>
-        <v>45001</v>
-      </c>
-      <c r="G35" s="75">
-        <f>F35+4</f>
-        <v>45005</v>
+        <v>45355</v>
+      </c>
+      <c r="G35" s="94">
+        <f>F35+15</f>
+        <v>45370</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
@@ -4934,24 +4954,26 @@
     </row>
     <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
-      <c r="B36" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="75">
-        <f>F34</f>
-        <v>44995</v>
-      </c>
-      <c r="G36" s="75">
-        <f>F36+4</f>
-        <v>44999</v>
+      <c r="B36" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="93">
+        <v>1</v>
+      </c>
+      <c r="F36" s="94">
+        <f>G35+1</f>
+        <v>45371</v>
+      </c>
+      <c r="G36" s="94">
+        <f>F36+16</f>
+        <v>45387</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
@@ -5011,21 +5033,27 @@
       <c r="BM36" s="20"/>
     </row>
     <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93">
+        <v>1</v>
+      </c>
+      <c r="F37" s="94">
+        <f>G36+1</f>
+        <v>45388</v>
+      </c>
+      <c r="G37" s="94">
+        <f>F37+1</f>
+        <v>45389</v>
+      </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="13" t="str">
+      <c r="I37" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
@@ -5085,24 +5113,19 @@
       <c r="BM37" s="20"/>
     </row>
     <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102">
-        <v>45318</v>
-      </c>
-      <c r="G38" s="102">
-        <f>F38+29</f>
-        <v>45347</v>
-      </c>
+      <c r="A38" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="13">
+      <c r="I38" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v/>
       </c>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
@@ -5162,480 +5185,91 @@
       <c r="BM38" s="20"/>
     </row>
     <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102">
-        <f>G38+1</f>
-        <v>45348</v>
-      </c>
-      <c r="G39" s="102">
-        <f>F39+6</f>
-        <v>45354</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="20"/>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="20"/>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="20"/>
-      <c r="AO39" s="20"/>
-      <c r="AP39" s="20"/>
-      <c r="AQ39" s="20"/>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="20"/>
-      <c r="AT39" s="20"/>
-      <c r="AU39" s="20"/>
-      <c r="AV39" s="20"/>
-      <c r="AW39" s="20"/>
-      <c r="AX39" s="20"/>
-      <c r="AY39" s="20"/>
-      <c r="AZ39" s="20"/>
-      <c r="BA39" s="20"/>
-      <c r="BB39" s="20"/>
-      <c r="BC39" s="20"/>
-      <c r="BD39" s="20"/>
-      <c r="BE39" s="20"/>
-      <c r="BF39" s="20"/>
-      <c r="BG39" s="20"/>
-      <c r="BH39" s="20"/>
-      <c r="BI39" s="20"/>
-      <c r="BJ39" s="20"/>
-      <c r="BK39" s="20"/>
-      <c r="BL39" s="20"/>
-      <c r="BM39" s="20"/>
-    </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="102">
-        <f>G39+1</f>
-        <v>45355</v>
-      </c>
-      <c r="G40" s="102">
-        <f>F40+6</f>
-        <v>45361</v>
-      </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
-      <c r="AJ40" s="20"/>
-      <c r="AK40" s="20"/>
-      <c r="AL40" s="20"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="20"/>
-      <c r="AO40" s="20"/>
-      <c r="AP40" s="20"/>
-      <c r="AQ40" s="20"/>
-      <c r="AR40" s="20"/>
-      <c r="AS40" s="20"/>
-      <c r="AT40" s="20"/>
-      <c r="AU40" s="20"/>
-      <c r="AV40" s="20"/>
-      <c r="AW40" s="20"/>
-      <c r="AX40" s="20"/>
-      <c r="AY40" s="20"/>
-      <c r="AZ40" s="20"/>
-      <c r="BA40" s="20"/>
-      <c r="BB40" s="20"/>
-      <c r="BC40" s="20"/>
-      <c r="BD40" s="20"/>
-      <c r="BE40" s="20"/>
-      <c r="BF40" s="20"/>
-      <c r="BG40" s="20"/>
-      <c r="BH40" s="20"/>
-      <c r="BI40" s="20"/>
-      <c r="BJ40" s="20"/>
-      <c r="BK40" s="20"/>
-      <c r="BL40" s="20"/>
-      <c r="BM40" s="20"/>
-    </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
-      <c r="B41" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102">
-        <f>G40+1</f>
-        <v>45362</v>
-      </c>
-      <c r="G41" s="102">
-        <f>F41+11</f>
-        <v>45373</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13">
-        <f t="shared" si="6"/>
+      <c r="A39" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="20"/>
-      <c r="AJ41" s="20"/>
-      <c r="AK41" s="20"/>
-      <c r="AL41" s="20"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="20"/>
-      <c r="AO41" s="20"/>
-      <c r="AP41" s="20"/>
-      <c r="AQ41" s="20"/>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="20"/>
-      <c r="AT41" s="20"/>
-      <c r="AU41" s="20"/>
-      <c r="AV41" s="20"/>
-      <c r="AW41" s="20"/>
-      <c r="AX41" s="20"/>
-      <c r="AY41" s="20"/>
-      <c r="AZ41" s="20"/>
-      <c r="BA41" s="20"/>
-      <c r="BB41" s="20"/>
-      <c r="BC41" s="20"/>
-      <c r="BD41" s="20"/>
-      <c r="BE41" s="20"/>
-      <c r="BF41" s="20"/>
-      <c r="BG41" s="20"/>
-      <c r="BH41" s="20"/>
-      <c r="BI41" s="20"/>
-      <c r="BJ41" s="20"/>
-      <c r="BK41" s="20"/>
-      <c r="BL41" s="20"/>
-      <c r="BM41" s="20"/>
-    </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
-      <c r="B42" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102">
-        <f>G41+1</f>
-        <v>45374</v>
-      </c>
-      <c r="G42" s="102">
-        <f>F42+1</f>
-        <v>45375</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="20"/>
-      <c r="AT42" s="20"/>
-      <c r="AU42" s="20"/>
-      <c r="AV42" s="20"/>
-      <c r="AW42" s="20"/>
-      <c r="AX42" s="20"/>
-      <c r="AY42" s="20"/>
-      <c r="AZ42" s="20"/>
-      <c r="BA42" s="20"/>
-      <c r="BB42" s="20"/>
-      <c r="BC42" s="20"/>
-      <c r="BD42" s="20"/>
-      <c r="BE42" s="20"/>
-      <c r="BF42" s="20"/>
-      <c r="BG42" s="20"/>
-      <c r="BH42" s="20"/>
-      <c r="BI42" s="20"/>
-      <c r="BJ42" s="20"/>
-      <c r="BK42" s="20"/>
-      <c r="BL42" s="20"/>
-      <c r="BM42" s="20"/>
-    </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13" t="str">
+      <c r="B39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
-      <c r="AJ43" s="20"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
-      <c r="AM43" s="20"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
-      <c r="AP43" s="20"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
-      <c r="AS43" s="20"/>
-      <c r="AT43" s="20"/>
-      <c r="AU43" s="20"/>
-      <c r="AV43" s="20"/>
-      <c r="AW43" s="20"/>
-      <c r="AX43" s="20"/>
-      <c r="AY43" s="20"/>
-      <c r="AZ43" s="20"/>
-      <c r="BA43" s="20"/>
-      <c r="BB43" s="20"/>
-      <c r="BC43" s="20"/>
-      <c r="BD43" s="20"/>
-      <c r="BE43" s="20"/>
-      <c r="BF43" s="20"/>
-      <c r="BG43" s="20"/>
-      <c r="BH43" s="20"/>
-      <c r="BI43" s="20"/>
-      <c r="BJ43" s="20"/>
-      <c r="BK43" s="20"/>
-      <c r="BL43" s="20"/>
-      <c r="BM43" s="20"/>
-    </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
-      <c r="AM44" s="22"/>
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="22"/>
-      <c r="AP44" s="22"/>
-      <c r="AQ44" s="22"/>
-      <c r="AR44" s="22"/>
-      <c r="AS44" s="22"/>
-      <c r="AT44" s="22"/>
-      <c r="AU44" s="22"/>
-      <c r="AV44" s="22"/>
-      <c r="AW44" s="22"/>
-      <c r="AX44" s="22"/>
-      <c r="AY44" s="22"/>
-      <c r="AZ44" s="22"/>
-      <c r="BA44" s="22"/>
-      <c r="BB44" s="22"/>
-      <c r="BC44" s="22"/>
-      <c r="BD44" s="22"/>
-      <c r="BE44" s="22"/>
-      <c r="BF44" s="22"/>
-      <c r="BG44" s="22"/>
-      <c r="BH44" s="22"/>
-      <c r="BI44" s="22"/>
-      <c r="BJ44" s="22"/>
-      <c r="BK44" s="22"/>
-      <c r="BL44" s="22"/>
-      <c r="BM44" s="22"/>
-    </row>
-    <row r="45" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="11"/>
-      <c r="G46" s="34"/>
-    </row>
-    <row r="47" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="12"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
+      <c r="AQ39" s="22"/>
+      <c r="AR39" s="22"/>
+      <c r="AS39" s="22"/>
+      <c r="AT39" s="22"/>
+      <c r="AU39" s="22"/>
+      <c r="AV39" s="22"/>
+      <c r="AW39" s="22"/>
+      <c r="AX39" s="22"/>
+      <c r="AY39" s="22"/>
+      <c r="AZ39" s="22"/>
+      <c r="BA39" s="22"/>
+      <c r="BB39" s="22"/>
+      <c r="BC39" s="22"/>
+      <c r="BD39" s="22"/>
+      <c r="BE39" s="22"/>
+      <c r="BF39" s="22"/>
+      <c r="BG39" s="22"/>
+      <c r="BH39" s="22"/>
+      <c r="BI39" s="22"/>
+      <c r="BJ39" s="22"/>
+      <c r="BK39" s="22"/>
+      <c r="BL39" s="22"/>
+      <c r="BM39" s="22"/>
+    </row>
+    <row r="40" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="11"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
     <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="F3:G3"/>
@@ -5643,8 +5277,13 @@
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E44">
+  <conditionalFormatting sqref="E7:E39">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5658,12 +5297,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BM44">
+  <conditionalFormatting sqref="J5:BM39">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:BM44">
+  <conditionalFormatting sqref="J7:BM39">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
@@ -5671,7 +5310,7 @@
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Mostrar semana" prompt="Al cambiar este número, se desplazará la vista del diagrama de Gantt." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -5698,7 +5337,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E44</xm:sqref>
+          <xm:sqref>E7:E39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5713,7 +5352,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5724,79 +5363,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:2" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="24" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>31</v>
+      <c r="A7" s="49" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>34</v>
+      <c r="A10" s="50" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="24" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>37</v>
+      <c r="A13" s="50" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
